--- a/Ext/Toolboxes/ExportResults/BreachResults_template.xlsx
+++ b/Ext/Toolboxes/ExportResults/BreachResults_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -378,19 +378,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Ext/Toolboxes/ExportResults/BreachResults_template.xlsx
+++ b/Ext/Toolboxes/ExportResults/BreachResults_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>#False</t>
+    <t>-#False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,14 +62,177 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8B8B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8B8B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8B8B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8B8B"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -390,23 +553,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="9">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>